--- a/Assessment2.xlsx
+++ b/Assessment2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek.kumar.k\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D71F60-FBFC-4F0A-A41F-2D578C22A912}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="36" windowWidth="19140" windowHeight="9552" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1,2,3 &amp; 4" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="181">
   <si>
     <t>Employee</t>
   </si>
@@ -362,12 +368,6 @@
     <t>Question 9</t>
   </si>
   <si>
-    <t xml:space="preserve">Fetch Cust_Name, City,Priority_num,Purchased_amount
-Show only the Sales Man top two salesperson who purchased more in their respective priority
- Sum of Amount_purchase_by_Customer -- Amount purchased by corresponding customer
- </t>
-  </si>
-  <si>
     <t>Sales_Manager_Name</t>
   </si>
   <si>
@@ -380,12 +380,6 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Fetch Salesman_Name, City, Amount_purchase_by_Customer 
-Show only the Sales Man who  Amount_purchase_by_Customer is less than the avg monthly target of all customer
- Sum of Amount_purchase_by_Customer -- Amount purchased by corresponding customer
- </t>
-  </si>
-  <si>
     <t xml:space="preserve">Fetch Salesman_Name, City, Monthly_target, Amount_purchase_by_Customer 
 Show only the Sales Man who achieved the monthly Target
  Sum of Amount_purchase_by_Customer -- Amount purchased by corresponding customer
@@ -495,10 +489,6 @@
     <t>Question 11</t>
   </si>
   <si>
-    <t>Fetch All Student_name,City_name,Class_Name,Classroom_num
-Show only the information of all the student where stands as of today date</t>
-  </si>
-  <si>
     <t>Question 12</t>
   </si>
   <si>
@@ -578,23 +568,39 @@
     <t>al</t>
   </si>
   <si>
-    <t>Show Customer name from 2nd occurance of a till last 2nd of character
+    <t>Question 14</t>
+  </si>
+  <si>
+    <t>Show Customer name who’s name contain 'A' or 'U' or 'R'</t>
+  </si>
+  <si>
+    <t>Question 15</t>
+  </si>
+  <si>
+    <t>Show Customer name from 2nd occurance of "a" till last 2nd of character
 If there is no 2nd occurance populate 'No Second Occurance'</t>
   </si>
   <si>
-    <t>Question 14</t>
-  </si>
-  <si>
-    <t>Show Customer name who’s name contain 'A' or 'U' or 'R'</t>
-  </si>
-  <si>
-    <t>Question 15</t>
+    <t>Fetch All Student_name,City_name,Class_Name,Classroom_num
+Show only the information of all the student where he stands as of today'S date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch Cust_Name, City,Priority_num,Purchased_amount
+Show only the customer information who is top two  purchased more in their respective priority
+ Sum of Amount_purchase_by_Customer -- Amount purchased by corresponding customer
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch Salesman_Name, City, Amount_purchase_by_Customer 
+Show only the Sales Man who  Amount_purchase_by_Customer is less than the avg monthly target of all sales person
+ Sum of Amount_purchase_by_Customer -- Amount purchased by corresponding customer
+ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -797,6 +803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -827,7 +834,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -838,6 +844,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -886,7 +895,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -919,9 +928,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -954,6 +980,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1129,43 +1172,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H7" sqref="H7:P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +1225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1217,7 +1260,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1249,7 +1292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1265,17 +1308,17 @@
       <c r="E9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
       <c r="R9" s="1">
         <v>2</v>
       </c>
@@ -1292,7 +1335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1308,15 +1351,15 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
       <c r="R10" s="1">
         <v>3</v>
       </c>
@@ -1333,7 +1376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -1349,15 +1392,15 @@
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
       <c r="R11" s="1">
         <v>4</v>
       </c>
@@ -1374,7 +1417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -1390,15 +1433,15 @@
       <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
       <c r="R12" s="1">
         <v>5</v>
       </c>
@@ -1415,7 +1458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -1431,15 +1474,15 @@
       <c r="E13" s="1">
         <v>4</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="16"/>
       <c r="R13" s="1">
         <v>6</v>
       </c>
@@ -1456,7 +1499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -1472,15 +1515,15 @@
       <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
       <c r="R14" s="1">
         <v>7</v>
       </c>
@@ -1497,7 +1540,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -1513,15 +1556,15 @@
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16"/>
       <c r="R15" s="1">
         <v>8</v>
       </c>
@@ -1538,7 +1581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -1554,15 +1597,15 @@
       <c r="E16" s="1">
         <v>8</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="16"/>
       <c r="R16" s="1">
         <v>9</v>
       </c>
@@ -1579,7 +1622,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -1595,15 +1638,15 @@
       <c r="E17" s="1">
         <v>6</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="16"/>
       <c r="R17" s="1">
         <v>10</v>
       </c>
@@ -1620,7 +1663,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1636,15 +1679,15 @@
       <c r="E18" s="1">
         <v>7</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
       <c r="R18" s="1">
         <v>11</v>
       </c>
@@ -1661,7 +1704,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -1677,15 +1720,15 @@
       <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="19"/>
       <c r="R19" s="1">
         <v>12</v>
       </c>
@@ -1702,7 +1745,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -1743,7 +1786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -1784,7 +1827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -1810,7 +1853,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -1826,7 +1869,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -1837,7 +1880,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1847,17 +1890,17 @@
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="13"/>
       <c r="R25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1868,7 +1911,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>10</v>
       </c>
@@ -1878,15 +1921,15 @@
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="15"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="16"/>
       <c r="R26" s="1">
         <v>1</v>
       </c>
@@ -1897,7 +1940,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -1907,15 +1950,15 @@
       <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="15"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="16"/>
       <c r="R27" s="1">
         <v>2</v>
       </c>
@@ -1926,7 +1969,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30</v>
       </c>
@@ -1936,15 +1979,15 @@
       <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="15"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="16"/>
       <c r="R28" s="1">
         <v>3</v>
       </c>
@@ -1955,7 +1998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40</v>
       </c>
@@ -1965,15 +2008,15 @@
       <c r="C29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="15"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="16"/>
       <c r="R29" s="1">
         <v>4</v>
       </c>
@@ -1984,7 +2027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>50</v>
       </c>
@@ -1994,15 +2037,15 @@
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="15"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="16"/>
       <c r="R30" s="1">
         <v>5</v>
       </c>
@@ -2013,7 +2056,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>100</v>
       </c>
@@ -2023,15 +2066,15 @@
       <c r="C31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="15"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="16"/>
       <c r="R31" s="1">
         <v>6</v>
       </c>
@@ -2042,16 +2085,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="15"/>
+    <row r="32" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="16"/>
       <c r="R32" s="1">
         <v>7</v>
       </c>
@@ -2062,19 +2105,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="15"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="16"/>
       <c r="R33" s="1">
         <v>8</v>
       </c>
@@ -2085,16 +2128,16 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="15"/>
+    <row r="34" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="16"/>
       <c r="R34" s="1">
         <v>9</v>
       </c>
@@ -2105,7 +2148,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
@@ -2115,15 +2158,15 @@
       <c r="C35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="18"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="19"/>
       <c r="R35" s="1">
         <v>10</v>
       </c>
@@ -2134,7 +2177,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -2154,7 +2197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -2174,7 +2217,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -2194,7 +2237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -2214,7 +2257,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -2234,7 +2277,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>10</v>
       </c>
@@ -2245,7 +2288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H42" s="2" t="s">
         <v>65</v>
       </c>
@@ -2258,7 +2301,7 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>37</v>
       </c>
@@ -2272,52 +2315,52 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H44" s="10" t="s">
+    <row r="44" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="12"/>
-    </row>
-    <row r="45" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="13"/>
+    </row>
+    <row r="45" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="15"/>
-    </row>
-    <row r="46" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="16"/>
+    </row>
+    <row r="46" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="15"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="16"/>
       <c r="R46" s="4" t="s">
         <v>17</v>
       </c>
@@ -2331,22 +2374,22 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="15"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="16"/>
       <c r="R47" s="1" t="s">
         <v>24</v>
       </c>
@@ -2360,22 +2403,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="15"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="16"/>
       <c r="R48" s="1" t="s">
         <v>24</v>
       </c>
@@ -2389,22 +2432,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="15"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="16"/>
       <c r="R49" s="1" t="s">
         <v>24</v>
       </c>
@@ -2418,22 +2461,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="15"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="16"/>
       <c r="R50" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,22 +2490,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>10</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="15"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="16"/>
       <c r="R51" s="1" t="s">
         <v>24</v>
       </c>
@@ -2476,16 +2519,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="H52" s="13"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="15"/>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="16"/>
       <c r="R52" s="1" t="s">
         <v>24</v>
       </c>
@@ -2499,16 +2542,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="H53" s="13"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="15"/>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="16"/>
       <c r="R53" s="1" t="s">
         <v>24</v>
       </c>
@@ -2522,16 +2565,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H54" s="16"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="18"/>
+    <row r="54" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="17"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="19"/>
       <c r="R54" s="1" t="s">
         <v>68</v>
       </c>
@@ -2545,8 +2588,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H58" s="2" t="s">
         <v>65</v>
       </c>
@@ -2559,7 +2602,7 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
     </row>
-    <row r="59" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -2570,18 +2613,18 @@
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="H60" s="10" t="s">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H60" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="13"/>
       <c r="R60" s="4" t="s">
         <v>3</v>
       </c>
@@ -2595,16 +2638,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="H61" s="13"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="15"/>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="16"/>
       <c r="R61" s="1" t="s">
         <v>7</v>
       </c>
@@ -2618,16 +2661,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="H62" s="13"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="15"/>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="16"/>
       <c r="R62" s="1" t="s">
         <v>8</v>
       </c>
@@ -2641,16 +2684,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="H63" s="13"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="15"/>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="16"/>
       <c r="R63" s="1" t="s">
         <v>9</v>
       </c>
@@ -2664,16 +2707,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="H64" s="13"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="15"/>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="16"/>
       <c r="R64" s="1" t="s">
         <v>10</v>
       </c>
@@ -2687,16 +2730,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="8:21" x14ac:dyDescent="0.3">
-      <c r="H65" s="13"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="15"/>
+    <row r="65" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H65" s="14"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="16"/>
       <c r="R65" s="1" t="s">
         <v>11</v>
       </c>
@@ -2710,16 +2753,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="8:21" x14ac:dyDescent="0.3">
-      <c r="H66" s="13"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="15"/>
+    <row r="66" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="16"/>
       <c r="R66" s="1" t="s">
         <v>12</v>
       </c>
@@ -2733,16 +2776,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="8:21" x14ac:dyDescent="0.3">
-      <c r="H67" s="13"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="15"/>
+    <row r="67" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="16"/>
       <c r="R67" s="1" t="s">
         <v>13</v>
       </c>
@@ -2756,16 +2799,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="8:21" x14ac:dyDescent="0.3">
-      <c r="H68" s="13"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="15"/>
+    <row r="68" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="16"/>
       <c r="R68" s="1" t="s">
         <v>14</v>
       </c>
@@ -2779,16 +2822,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="8:21" x14ac:dyDescent="0.3">
-      <c r="H69" s="13"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="15"/>
+    <row r="69" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="16"/>
       <c r="R69" s="1" t="s">
         <v>15</v>
       </c>
@@ -2802,16 +2845,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="8:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H70" s="16"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="18"/>
+    <row r="70" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H70" s="17"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="19"/>
       <c r="R70" s="1" t="s">
         <v>44</v>
       </c>
@@ -2825,7 +2868,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:21" x14ac:dyDescent="0.25">
       <c r="R71" s="1" t="s">
         <v>45</v>
       </c>
@@ -2839,7 +2882,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:21" x14ac:dyDescent="0.25">
       <c r="R72" s="1" t="s">
         <v>46</v>
       </c>
@@ -2853,7 +2896,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:21" x14ac:dyDescent="0.25">
       <c r="R73" s="1" t="s">
         <v>47</v>
       </c>
@@ -2867,7 +2910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:21" x14ac:dyDescent="0.25">
       <c r="R74" s="1" t="s">
         <v>48</v>
       </c>
@@ -2881,7 +2924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:21" x14ac:dyDescent="0.25">
       <c r="R75" s="1" t="s">
         <v>49</v>
       </c>
@@ -2895,7 +2938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:21" x14ac:dyDescent="0.25">
       <c r="R76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2909,7 +2952,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:21" x14ac:dyDescent="0.25">
       <c r="R77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2923,7 +2966,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="8:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:21" x14ac:dyDescent="0.25">
       <c r="R78" s="1" t="s">
         <v>68</v>
       </c>
@@ -2950,47 +2993,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B13"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I4" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>84</v>
       </c>
@@ -3022,7 +3065,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -3041,13 +3084,13 @@
       <c r="F6" s="1">
         <v>10000</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="P6" s="1" t="s">
         <v>94</v>
@@ -3062,7 +3105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -3081,11 +3124,11 @@
       <c r="F7" s="1">
         <v>8000</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
       <c r="N7" s="6"/>
       <c r="P7" s="1" t="s">
         <v>97</v>
@@ -3100,7 +3143,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30</v>
       </c>
@@ -3119,14 +3162,14 @@
       <c r="F8" s="1">
         <v>8000</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40</v>
       </c>
@@ -3145,14 +3188,14 @@
       <c r="F9" s="1">
         <v>9000</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>50</v>
       </c>
@@ -3171,14 +3214,14 @@
       <c r="F10" s="1">
         <v>3000</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>60</v>
       </c>
@@ -3197,14 +3240,14 @@
       <c r="F11" s="1">
         <v>6000</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>70</v>
       </c>
@@ -3223,14 +3266,14 @@
       <c r="F12" s="1">
         <v>5000</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>80</v>
       </c>
@@ -3250,8 +3293,8 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -3259,8 +3302,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:19" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:19" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -3276,13 +3319,13 @@
       <c r="E17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
+      <c r="I17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="6"/>
       <c r="P17" s="4" t="s">
         <v>91</v>
@@ -3297,7 +3340,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -3313,11 +3356,11 @@
       <c r="E18" s="1">
         <v>10000</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
       <c r="N18" s="6"/>
       <c r="P18" s="1" t="s">
         <v>77</v>
@@ -3332,7 +3375,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -3348,11 +3391,11 @@
       <c r="E19" s="1">
         <v>21000</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
       <c r="N19" s="6"/>
       <c r="P19" s="1" t="s">
         <v>79</v>
@@ -3367,7 +3410,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -3383,11 +3426,11 @@
       <c r="E20" s="1">
         <v>21000</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="6"/>
       <c r="P20" s="1" t="s">
         <v>81</v>
@@ -3402,7 +3445,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -3418,14 +3461,14 @@
       <c r="E21" s="1">
         <v>9000</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -3441,14 +3484,14 @@
       <c r="E22" s="1">
         <v>4000</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -3464,57 +3507,35 @@
       <c r="E23" s="1">
         <v>15000</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="16"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="18"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="s">
-        <v>91</v>
-      </c>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I27" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="1">
-        <v>9000</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="12"/>
+    <row r="28" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="13"/>
       <c r="P29" s="3" t="s">
         <v>85</v>
       </c>
@@ -3528,21 +3549,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="1">
-        <v>9000</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="15"/>
+    <row r="30" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="14"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="16"/>
       <c r="P30" s="1" t="s">
         <v>93</v>
       </c>
@@ -3556,21 +3568,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4000</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="16"/>
       <c r="P31" s="1" t="s">
         <v>94</v>
       </c>
@@ -3584,21 +3587,12 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="1">
-        <v>15000</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="16"/>
       <c r="P32" s="1" t="s">
         <v>95</v>
       </c>
@@ -3612,21 +3606,12 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="1">
-        <v>15000</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
+    <row r="33" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="16"/>
       <c r="P33" s="1" t="s">
         <v>96</v>
       </c>
@@ -3640,12 +3625,12 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="15"/>
+    <row r="34" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="16"/>
       <c r="P34" s="1" t="s">
         <v>98</v>
       </c>
@@ -3659,12 +3644,12 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I35" s="13"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="15"/>
+    <row r="35" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="16"/>
       <c r="P35" s="1" t="s">
         <v>100</v>
       </c>
@@ -3678,28 +3663,28 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="36" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I36" s="16"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="18"/>
-    </row>
-    <row r="38" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="9:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="19"/>
+    </row>
+    <row r="38" spans="9:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="9:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I39" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I41" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
+    <row r="40" spans="9:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="9:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
       <c r="P41" s="4" t="s">
         <v>91</v>
       </c>
@@ -3713,12 +3698,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
+    <row r="42" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
       <c r="P42" s="1" t="s">
         <v>77</v>
       </c>
@@ -3732,12 +3717,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
+    <row r="43" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
       <c r="P43" s="1" t="s">
         <v>78</v>
       </c>
@@ -3751,12 +3736,12 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
+    <row r="44" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
       <c r="P44" s="1" t="s">
         <v>80</v>
       </c>
@@ -3770,12 +3755,12 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
+    <row r="45" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
       <c r="P45" s="1" t="s">
         <v>81</v>
       </c>
@@ -3789,12 +3774,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
+    <row r="46" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
       <c r="P46" s="1" t="s">
         <v>82</v>
       </c>
@@ -3808,68 +3793,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-    </row>
-    <row r="49" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-    </row>
-    <row r="50" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-    </row>
-    <row r="53" spans="9:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="9:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+    </row>
+    <row r="48" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+    </row>
+    <row r="49" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+    </row>
+    <row r="50" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+    </row>
+    <row r="53" spans="9:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="9:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I54" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="9:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="9:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I56" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="12"/>
+    <row r="55" spans="9:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="9:19" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="13"/>
       <c r="P56" s="3" t="s">
         <v>91</v>
       </c>
       <c r="Q56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R56" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="R56" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="9:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I57" s="13"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="15"/>
+    <row r="57" spans="9:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="14"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="16"/>
       <c r="P57" s="1" t="s">
         <v>78</v>
       </c>
@@ -3883,12 +3868,12 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="58" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I58" s="13"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="15"/>
+    <row r="58" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I58" s="14"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="16"/>
       <c r="P58" s="1" t="s">
         <v>79</v>
       </c>
@@ -3902,12 +3887,12 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="59" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I59" s="13"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="15"/>
+    <row r="59" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I59" s="14"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="16"/>
       <c r="P59" s="1" t="s">
         <v>80</v>
       </c>
@@ -3921,61 +3906,61 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="60" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I60" s="13"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="15"/>
-    </row>
-    <row r="61" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I61" s="13"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="15"/>
-    </row>
-    <row r="62" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I62" s="13"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="15"/>
-    </row>
-    <row r="63" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I63" s="13"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="15"/>
-    </row>
-    <row r="64" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I64" s="13"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="15"/>
-    </row>
-    <row r="65" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I65" s="13"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="15"/>
-    </row>
-    <row r="66" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I66" s="13"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="15"/>
-    </row>
-    <row r="67" spans="9:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I67" s="16"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="18"/>
+    <row r="60" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I60" s="14"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="16"/>
+    </row>
+    <row r="61" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I61" s="14"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="16"/>
+    </row>
+    <row r="62" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="16"/>
+    </row>
+    <row r="63" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I63" s="14"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="16"/>
+    </row>
+    <row r="64" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I64" s="14"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="16"/>
+    </row>
+    <row r="65" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I65" s="14"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="16"/>
+    </row>
+    <row r="66" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I66" s="14"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="16"/>
+    </row>
+    <row r="67" spans="9:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I67" s="17"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3991,53 +3976,53 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:L25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4048,32 +4033,32 @@
         <v>1</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
+      <c r="H7" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
       <c r="N7" s="1" t="s">
         <v>44</v>
       </c>
@@ -4081,156 +4066,156 @@
         <v>29</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
       <c r="N8" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
       <c r="N9" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
       <c r="N10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
       <c r="N11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
       <c r="N12" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -4240,17 +4225,17 @@
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="10">
         <v>43104</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -4260,14 +4245,14 @@
       <c r="C18" s="1">
         <v>3</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="10">
         <v>43469</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -4277,33 +4262,33 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="10">
         <v>43104</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
       <c r="N19" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -4313,17 +4298,17 @@
       <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="10">
         <v>43469</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
+        <v>135</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
       <c r="N20" s="1" t="s">
         <v>44</v>
       </c>
@@ -4331,13 +4316,13 @@
         <v>29</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -4347,31 +4332,31 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="10">
         <v>42739</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
+        <v>136</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
       <c r="N21" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -4381,31 +4366,31 @@
       <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="10">
         <v>43104</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="15"/>
+        <v>134</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
       <c r="N22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -4415,31 +4400,31 @@
       <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="10">
         <v>43469</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="15"/>
+        <v>135</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
       <c r="N23" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -4449,31 +4434,31 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="10">
         <v>43104</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="15"/>
+        <v>134</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16"/>
       <c r="N24" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q24" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -4483,31 +4468,31 @@
       <c r="C25" s="1">
         <v>2</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="10">
         <v>43469</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18"/>
+        <v>135</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="19"/>
       <c r="N25" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -4517,14 +4502,14 @@
       <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="10">
         <v>43469</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -4534,29 +4519,29 @@
       <c r="C27" s="1">
         <v>3</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="10">
         <v>43469</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -4564,10 +4549,10 @@
         <v>29</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -4575,248 +4560,248 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="12"/>
+      <c r="H34" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="13"/>
       <c r="N34" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="15"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="16"/>
       <c r="N35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="15"/>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="16"/>
       <c r="N36" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="16"/>
+      <c r="N37" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="15"/>
-      <c r="N37" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="15"/>
+    <row r="38" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="16"/>
       <c r="N38" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="16"/>
+      <c r="N39" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="15"/>
-      <c r="N39" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C40" s="1">
         <v>256</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="10">
         <v>42739</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="18"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="H40" s="17"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C41" s="1">
         <v>257</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="10">
         <v>43111</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C42" s="1">
         <v>258</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="10">
         <v>43475</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C43" s="1">
         <v>301</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="10">
         <v>42739</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C44" s="1">
         <v>310</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="10">
         <v>43104</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C45" s="1">
         <v>320</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="10">
         <v>43476</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C46" s="1">
         <v>356</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="10">
         <v>42739</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1">
         <v>360</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="10">
         <v>43111</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C48" s="1">
         <v>371</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="10">
         <v>43475</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4826,33 +4811,34 @@
     <mergeCell ref="H34:L40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>84</v>
       </c>
@@ -4860,297 +4846,297 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
+        <v>154</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
       <c r="N8" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
       <c r="N9" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
+        <v>156</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
       <c r="N10" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
+        <v>157</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
       <c r="N11" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="N12" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
+      <c r="N13" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="N12" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="N13" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="18" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="7:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="18" spans="7:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="7:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G19" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="7:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="7:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="7:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
       <c r="N21" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="7:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
+    <row r="22" spans="7:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
       <c r="N22" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+      <c r="N23" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+      <c r="N24" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+      <c r="N25" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="N23" s="1" t="s">
+    <row r="26" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+      <c r="N26" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="N24" s="1" t="s">
+    <row r="27" spans="7:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="N27" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="N25" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-      <c r="N26" s="1" t="s">
+    <row r="28" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="7:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="7:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="7:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="7:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="11" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="27" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="18"/>
-      <c r="N27" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="7:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="7:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="7:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G33" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="13"/>
       <c r="N33" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="7:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15"/>
+    <row r="34" spans="7:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="16"/>
       <c r="N34" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G35" s="14"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="16"/>
       <c r="N35" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G36" s="14"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="16"/>
       <c r="N36" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="16"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G38" s="13"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="15"/>
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G38" s="14"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="16"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="18"/>
+    <row r="39" spans="7:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="17"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
       <c r="N39" s="1"/>
     </row>
   </sheetData>
@@ -5160,5 +5146,6 @@
     <mergeCell ref="G33:K39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>